--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>93.14761017986527</v>
+        <v>207.1702875928875</v>
       </c>
       <c r="R2">
-        <v>93.14761017986527</v>
+        <v>1864.532588335988</v>
       </c>
       <c r="S2">
-        <v>0.0001161168628736184</v>
+        <v>0.0002008652434486766</v>
       </c>
       <c r="T2">
-        <v>0.0001161168628736184</v>
+        <v>0.0002008652434486766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>1846.566929376846</v>
+        <v>3317.634355926966</v>
       </c>
       <c r="R3">
-        <v>1846.566929376846</v>
+        <v>29858.70920334269</v>
       </c>
       <c r="S3">
-        <v>0.002301911541384431</v>
+        <v>0.003216665093821311</v>
       </c>
       <c r="T3">
-        <v>0.002301911541384431</v>
+        <v>0.003216665093821311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>1709.431234335169</v>
+        <v>4507.89996151453</v>
       </c>
       <c r="R4">
-        <v>1709.431234335169</v>
+        <v>40571.09965363077</v>
       </c>
       <c r="S4">
-        <v>0.002130959579595132</v>
+        <v>0.004370706020311489</v>
       </c>
       <c r="T4">
-        <v>0.002130959579595132</v>
+        <v>0.004370706020311489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>1638.729513379251</v>
+        <v>2932.302763872694</v>
       </c>
       <c r="R5">
-        <v>1638.729513379251</v>
+        <v>26390.72487485424</v>
       </c>
       <c r="S5">
-        <v>0.002042823533793049</v>
+        <v>0.002843060727356624</v>
       </c>
       <c r="T5">
-        <v>0.002042823533793049</v>
+        <v>0.002843060727356624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>7298.8695135834</v>
+        <v>13192.75044451748</v>
       </c>
       <c r="R6">
-        <v>7298.8695135834</v>
+        <v>118734.7540006573</v>
       </c>
       <c r="S6">
-        <v>0.009098696453990153</v>
+        <v>0.01279124077388507</v>
       </c>
       <c r="T6">
-        <v>0.009098696453990153</v>
+        <v>0.01279124077388507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>597.679696264655</v>
+        <v>1099.953896796058</v>
       </c>
       <c r="R7">
-        <v>597.679696264655</v>
+        <v>9899.585071164516</v>
       </c>
       <c r="S7">
-        <v>0.0007450614266914432</v>
+        <v>0.001066477774537037</v>
       </c>
       <c r="T7">
-        <v>0.0007450614266914432</v>
+        <v>0.001066477774537037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>4287.927452577988</v>
+        <v>5544.311318743301</v>
       </c>
       <c r="R8">
-        <v>4287.927452577988</v>
+        <v>49898.80186868971</v>
       </c>
       <c r="S8">
-        <v>0.005345286723530432</v>
+        <v>0.005375575116172499</v>
       </c>
       <c r="T8">
-        <v>0.005345286723530432</v>
+        <v>0.0053755751161725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>85004.27455098741</v>
+        <v>88786.85223029547</v>
       </c>
       <c r="R9">
-        <v>85004.27455098741</v>
+        <v>799081.6700726592</v>
       </c>
       <c r="S9">
-        <v>0.105965463554555</v>
+        <v>0.08608470305030483</v>
       </c>
       <c r="T9">
-        <v>0.105965463554555</v>
+        <v>0.08608470305030484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>78691.4135944679</v>
+        <v>120640.8557461768</v>
       </c>
       <c r="R10">
-        <v>78691.4135944679</v>
+        <v>1085767.701715591</v>
       </c>
       <c r="S10">
-        <v>0.09809591533305008</v>
+        <v>0.1169692581927198</v>
       </c>
       <c r="T10">
-        <v>0.09809591533305008</v>
+        <v>0.1169692581927198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>75436.75306537874</v>
+        <v>78474.5708113782</v>
       </c>
       <c r="R11">
-        <v>75436.75306537874</v>
+        <v>706271.1373024038</v>
       </c>
       <c r="S11">
-        <v>0.09403868864063501</v>
+        <v>0.07608626677940207</v>
       </c>
       <c r="T11">
-        <v>0.09403868864063501</v>
+        <v>0.07608626677940208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>335993.8370898103</v>
+        <v>353065.6662437589</v>
       </c>
       <c r="R12">
-        <v>335993.8370898103</v>
+        <v>3177590.99619383</v>
       </c>
       <c r="S12">
-        <v>0.41884649785864</v>
+        <v>0.3423204255177014</v>
       </c>
       <c r="T12">
-        <v>0.41884649785864</v>
+        <v>0.3423204255177014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>27513.3969890691</v>
+        <v>29437.07281078057</v>
       </c>
       <c r="R13">
-        <v>27513.3969890691</v>
+        <v>264933.6552970252</v>
       </c>
       <c r="S13">
-        <v>0.03429792067878239</v>
+        <v>0.02854118158185565</v>
       </c>
       <c r="T13">
-        <v>0.03429792067878239</v>
+        <v>0.02854118158185565</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>288.4668089808429</v>
+        <v>1193.498601227499</v>
       </c>
       <c r="R14">
-        <v>288.4668089808429</v>
+        <v>10741.4874110475</v>
       </c>
       <c r="S14">
-        <v>0.0003595997883073896</v>
+        <v>0.001157175528772337</v>
       </c>
       <c r="T14">
-        <v>0.0003595997883073896</v>
+        <v>0.001157175528772337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>5718.592980091663</v>
+        <v>19112.74058258858</v>
       </c>
       <c r="R15">
-        <v>5718.592980091663</v>
+        <v>172014.6652432972</v>
       </c>
       <c r="S15">
-        <v>0.007128739810040511</v>
+        <v>0.01853106125738109</v>
       </c>
       <c r="T15">
-        <v>0.007128739810040511</v>
+        <v>0.01853106125738109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>5293.900427382526</v>
+        <v>25969.80658304497</v>
       </c>
       <c r="R16">
-        <v>5293.900427382526</v>
+        <v>233728.2592474047</v>
       </c>
       <c r="S16">
-        <v>0.006599322395990381</v>
+        <v>0.02517943852966616</v>
       </c>
       <c r="T16">
-        <v>0.006599322395990381</v>
+        <v>0.02517943852966616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>5074.945804776263</v>
+        <v>16892.86281213687</v>
       </c>
       <c r="R17">
-        <v>5074.945804776263</v>
+        <v>152035.7653092318</v>
       </c>
       <c r="S17">
-        <v>0.006326375791782041</v>
+        <v>0.01637874349999918</v>
       </c>
       <c r="T17">
-        <v>0.006326375791782041</v>
+        <v>0.01637874349999918</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>22603.71032263026</v>
+        <v>76002.83508230091</v>
       </c>
       <c r="R18">
-        <v>22603.71032263026</v>
+        <v>684025.5157407082</v>
       </c>
       <c r="S18">
-        <v>0.0281775552469858</v>
+        <v>0.07368975613721214</v>
       </c>
       <c r="T18">
-        <v>0.0281775552469858</v>
+        <v>0.07368975613721215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>1850.941258086862</v>
+        <v>6336.784355006619</v>
       </c>
       <c r="R19">
-        <v>1850.941258086862</v>
+        <v>57031.05919505958</v>
       </c>
       <c r="S19">
-        <v>0.002307364535036166</v>
+        <v>0.006143929937730453</v>
       </c>
       <c r="T19">
-        <v>0.002307364535036166</v>
+        <v>0.006143929937730454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>347.4032347495562</v>
+        <v>442.5628966920782</v>
       </c>
       <c r="R20">
-        <v>347.4032347495562</v>
+        <v>3983.066070228704</v>
       </c>
       <c r="S20">
-        <v>0.0004330693368662013</v>
+        <v>0.0004290938870543795</v>
       </c>
       <c r="T20">
-        <v>0.0004330693368662013</v>
+        <v>0.0004290938870543796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>6886.954192473085</v>
+        <v>7087.222244965415</v>
       </c>
       <c r="R21">
-        <v>6886.954192473085</v>
+        <v>63785.00020468874</v>
       </c>
       <c r="S21">
-        <v>0.008585207006815395</v>
+        <v>0.006871528915417347</v>
       </c>
       <c r="T21">
-        <v>0.008585207006815395</v>
+        <v>0.006871528915417349</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>6375.493039952765</v>
+        <v>9629.900542911977</v>
       </c>
       <c r="R22">
-        <v>6375.493039952765</v>
+        <v>86669.1048862078</v>
       </c>
       <c r="S22">
-        <v>0.007947624739297143</v>
+        <v>0.00933682305225011</v>
       </c>
       <c r="T22">
-        <v>0.007947624739297143</v>
+        <v>0.009336823052250112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>6111.803971440777</v>
+        <v>6264.066243456038</v>
       </c>
       <c r="R23">
-        <v>6111.803971440777</v>
+        <v>56376.59619110434</v>
       </c>
       <c r="S23">
-        <v>0.007618912630091605</v>
+        <v>0.00607342493747463</v>
       </c>
       <c r="T23">
-        <v>0.007618912630091605</v>
+        <v>0.006073424937474631</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>27221.8565150252</v>
+        <v>28182.71828407601</v>
       </c>
       <c r="R24">
-        <v>27221.8565150252</v>
+        <v>253644.4645566841</v>
       </c>
       <c r="S24">
-        <v>0.03393448929088852</v>
+        <v>0.02732500222377808</v>
       </c>
       <c r="T24">
-        <v>0.03393448929088852</v>
+        <v>0.02732500222377809</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>2229.105603735133</v>
+        <v>2349.751928473525</v>
       </c>
       <c r="R25">
-        <v>2229.105603735133</v>
+        <v>21147.76735626173</v>
       </c>
       <c r="S25">
-        <v>0.002778780359688463</v>
+        <v>0.002278239310476469</v>
       </c>
       <c r="T25">
-        <v>0.002778780359688463</v>
+        <v>0.00227823931047647</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>321.9801572562009</v>
+        <v>483.2391794429765</v>
       </c>
       <c r="R26">
-        <v>321.9801572562009</v>
+        <v>4349.152614986789</v>
       </c>
       <c r="S26">
-        <v>0.0004013771871972941</v>
+        <v>0.0004685322231800803</v>
       </c>
       <c r="T26">
-        <v>0.0004013771871972941</v>
+        <v>0.0004685322231800804</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>6382.964728314374</v>
+        <v>7738.614076746667</v>
       </c>
       <c r="R27">
-        <v>6382.964728314374</v>
+        <v>69647.52669072</v>
       </c>
       <c r="S27">
-        <v>0.007956938869968278</v>
+        <v>0.007503096213949748</v>
       </c>
       <c r="T27">
-        <v>0.007956938869968278</v>
+        <v>0.00750309621394975</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>5908.932463077555</v>
+        <v>10514.99181530361</v>
       </c>
       <c r="R28">
-        <v>5908.932463077555</v>
+        <v>94634.92633773248</v>
       </c>
       <c r="S28">
-        <v>0.007366015072418479</v>
+        <v>0.01019497735598216</v>
       </c>
       <c r="T28">
-        <v>0.007366015072418479</v>
+        <v>0.01019497735598216</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>5664.540243162166</v>
+        <v>6839.80119908305</v>
       </c>
       <c r="R29">
-        <v>5664.540243162166</v>
+        <v>61558.21079174745</v>
       </c>
       <c r="S29">
-        <v>0.007061358218286663</v>
+        <v>0.006631637909844433</v>
       </c>
       <c r="T29">
-        <v>0.007061358218286663</v>
+        <v>0.006631637909844435</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>25229.75253190197</v>
+        <v>30773.01273980305</v>
       </c>
       <c r="R30">
-        <v>25229.75253190197</v>
+        <v>276957.1146582275</v>
       </c>
       <c r="S30">
-        <v>0.03145115273945533</v>
+        <v>0.02983646336281852</v>
       </c>
       <c r="T30">
-        <v>0.03145115273945533</v>
+        <v>0.02983646336281853</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N31">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O31">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P31">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q31">
-        <v>2065.97895770524</v>
+        <v>2565.719363953231</v>
       </c>
       <c r="R31">
-        <v>2065.97895770524</v>
+        <v>23091.47427557908</v>
       </c>
       <c r="S31">
-        <v>0.002575428342910894</v>
+        <v>0.002487633968410548</v>
       </c>
       <c r="T31">
-        <v>0.002575428342910894</v>
+        <v>0.002487633968410548</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N32">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q32">
-        <v>328.5151468897051</v>
+        <v>588.9406669726339</v>
       </c>
       <c r="R32">
-        <v>328.5151468897051</v>
+        <v>5300.466002753706</v>
       </c>
       <c r="S32">
-        <v>0.0004095236387668928</v>
+        <v>0.0005710167795912517</v>
       </c>
       <c r="T32">
-        <v>0.0004095236387668928</v>
+        <v>0.0005710167795912519</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N33">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q33">
-        <v>6512.514973540718</v>
+        <v>9431.322478977107</v>
       </c>
       <c r="R33">
-        <v>6512.514973540718</v>
+        <v>84881.90231079396</v>
       </c>
       <c r="S33">
-        <v>0.008118434887215994</v>
+        <v>0.009144288535745369</v>
       </c>
       <c r="T33">
-        <v>0.008118434887215994</v>
+        <v>0.009144288535745372</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N34">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q34">
-        <v>6028.8616311367</v>
+        <v>12814.99215368867</v>
       </c>
       <c r="R34">
-        <v>6028.8616311367</v>
+        <v>115334.929383198</v>
       </c>
       <c r="S34">
-        <v>0.007515517552784647</v>
+        <v>0.01242497922193321</v>
       </c>
       <c r="T34">
-        <v>0.007515517552784647</v>
+        <v>0.01242497922193321</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N35">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q35">
-        <v>5779.50916572896</v>
+        <v>8335.907458479442</v>
       </c>
       <c r="R35">
-        <v>5779.50916572896</v>
+        <v>75023.16712631498</v>
       </c>
       <c r="S35">
-        <v>0.007204677307103199</v>
+        <v>0.008082211500828152</v>
       </c>
       <c r="T35">
-        <v>0.007204677307103199</v>
+        <v>0.008082211500828157</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N36">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O36">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P36">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q36">
-        <v>25741.82188628975</v>
+        <v>37504.15822787314</v>
       </c>
       <c r="R36">
-        <v>25741.82188628975</v>
+        <v>337537.4240508582</v>
       </c>
       <c r="S36">
-        <v>0.0320894931852318</v>
+        <v>0.03636275240194266</v>
       </c>
       <c r="T36">
-        <v>0.0320894931852318</v>
+        <v>0.03636275240194268</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N37">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O37">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P37">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q37">
-        <v>2107.910582270845</v>
+        <v>3126.932868342738</v>
       </c>
       <c r="R37">
-        <v>2107.910582270845</v>
+        <v>28142.39581508464</v>
       </c>
       <c r="S37">
-        <v>0.002627699879350214</v>
+        <v>0.003031767437044848</v>
       </c>
       <c r="T37">
-        <v>0.002627699879350214</v>
+        <v>0.003031767437044849</v>
       </c>
     </row>
   </sheetData>
